--- a/extras/pendulums.xlsx
+++ b/extras/pendulums.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanroutley/Documents/jonnyroutley.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanroutley/Documents/jonnyroutley.github.io/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>angle deg</t>
   </si>
@@ -43,12 +44,90 @@
   <si>
     <t>g=</t>
   </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>sin(x)</t>
+  </si>
+  <si>
+    <t>Starting Angle</t>
+  </si>
+  <si>
+    <t>Average Horizontal Swing Velocity</t>
+  </si>
+  <si>
+    <t>Time period corrected</t>
+  </si>
+  <si>
+    <t>Time period small angle</t>
+  </si>
+  <si>
+    <t>Time period of actual swing</t>
+  </si>
+  <si>
+    <t>distance covered</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Ave Velocity</t>
+  </si>
+  <si>
+    <t>Start Angle</t>
+  </si>
+  <si>
+    <t>Average V</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>60m</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>y6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,16 +135,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCFCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,24 +186,4143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCFCD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0872664625997165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.174532925199433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.261799387799149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.349065850398866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.436332312998582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.523598775598299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.610865238198015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.698131700797732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.785398163397448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.872664625997165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.959931088596881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.047197551196598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sin(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0871557427476581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17364817766693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.258819045102521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.342020143325669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.422618261740699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.573576436351046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.642787609686539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.707106781186547</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.766044443118978</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.819152044288992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.866025403784439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1794860800"/>
+        <c:axId val="1794863120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1794860800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1794863120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1794863120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1794860800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$27:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.549990576927021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.098410059971844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.184258732672956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.24502285772337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.268250550714995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.241583153723881</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.15275852035114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.989585318536803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.73987440444446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.391310597600668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$27:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$27:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.777804133067597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.553386403859226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.089008323477964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.589155335603088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.036217816427578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.412717984302652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.701314545487198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.884766352838615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.94583535382974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.86710525321195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$27:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$27:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.95261162292172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.902502031416011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.783247101865567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.62054446129923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.392826813272212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.078688334346871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.65689036395048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.10631689554324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.40585571269971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.53417629713551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$27:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$27:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.099981153854043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.196820119943687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.368517465345914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.490045715446741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.53650110142999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.48316630744776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.30551704070228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.97917063707361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.47974880888892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.78262119520134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$27:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$27:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.229816316993147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.456119561266663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.884151006704271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.256091698410085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.54409837639964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.72053624144433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.75798630064617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.62918790678281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.3068853056485</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.76354091654948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$27:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$27:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.347196276810141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.690544175270887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.35031936126699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.948650205090352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.45503594360503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.83920417099175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.07111888542192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.12091754406379</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.95874296411676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.55442923733061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1793669072"/>
+        <c:axId val="1793170752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1793669072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1793170752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1793170752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1793669072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$47:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$47:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.549292773057164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.092841966793289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.140170641028066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.098768569517176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.929886819209543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.601178423461468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.08829033823332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.376031680536946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.459061887698205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.34207424251021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$47:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$47:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.776817289370968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.545511930969557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.026658346334613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.382320537666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.557699238317399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.507048929357664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.195929205621545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.60285691436277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.720279359416871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.554833844961919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$47:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$47:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.951402991165409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.892857811129476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.706884287127865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.367224603301279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.806763638866174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.969474804124931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.81317738948194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.311560013789884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.455372551156157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.252744005832708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$47:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$47:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.098585546114328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.185683933586578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.280341282056133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.197537139034352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.859773638419085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.202356846922937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.17658067646664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.75206336107389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.91812377539641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.68414848502042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$47:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$47:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.228255980105184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.443668926414362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.785567036788057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.929057167980188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.787494071632963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.28854773146516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.3777630855451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.02117228687304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.20683347427151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.94524114710353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$47:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$47:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.345487013388452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.676905188143156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.242326033003948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.590401826291224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.626217453952583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.27053935298414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.46371499180526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.16853445835266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.37191609913533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.08535606221498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1872596256"/>
+        <c:axId val="1872599840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1872596256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Starting Angle (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>°)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872599840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1872599840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Velocity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (m/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0357625126555106"/>
+              <c:y val="0.302517536319296"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872596256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.130606272484296"/>
+          <c:y val="0.892855345521486"/>
+          <c:w val="0.678391265225607"/>
+          <c:h val="0.0487729150135303"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375335</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>822549</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108932</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40336</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,26 +4588,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" activeCellId="1" sqref="C3 E12"/>
+    <sheetView topLeftCell="B1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -385,8 +4624,20 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -396,10 +4647,29 @@
       </c>
       <c r="C3">
         <f>2*PI()*(SQRT($B$1/9.81))</f>
-        <v>6.3437398492194133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.0060666807106475</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f>F3*PI()/180</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="H3">
+        <f>SIN(G3)</f>
+        <v>8.7155742747658166E-2</v>
+      </c>
+      <c r="I3">
+        <f>COS(G3)</f>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="J3">
+        <f>TAN(G3)</f>
+        <v>8.7488663525924007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -407,8 +4677,27 @@
         <f t="shared" ref="B4:B20" si="0">A4*PI()/180</f>
         <v>0.17453292519943295</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G20" si="1">F4*PI()/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H20" si="2">SIN(G4)</f>
+        <v>0.17364817766693033</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I20" si="3">COS(G4)</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J20" si="4">TAN(G4)</f>
+        <v>0.17632698070846498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
@@ -416,8 +4705,27 @@
         <f t="shared" si="0"/>
         <v>0.26179938779914941</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.25881904510252074</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.96592582628906831</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0.2679491924311227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -425,8 +4733,27 @@
         <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.36397023426620234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25</v>
       </c>
@@ -434,8 +4761,27 @@
         <f t="shared" si="0"/>
         <v>0.43633231299858238</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.42261826174069944</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.90630778703664994</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.46630765815499858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
@@ -443,8 +4789,27 @@
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.57735026918962573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>35</v>
       </c>
@@ -452,8 +4817,27 @@
         <f t="shared" si="0"/>
         <v>0.6108652381980153</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.57357643635104605</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.8191520442889918</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.70020753820970971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40</v>
       </c>
@@ -461,8 +4845,27 @@
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.83909963117727993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>45</v>
       </c>
@@ -470,8 +4873,27 @@
         <f t="shared" si="0"/>
         <v>0.78539816339744828</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50</v>
       </c>
@@ -479,8 +4901,27 @@
         <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.64278760968653936</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>1.19175359259421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>55</v>
       </c>
@@ -488,8 +4929,27 @@
         <f t="shared" si="0"/>
         <v>0.95993108859688125</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.8191520442889918</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.57357643635104616</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>1.4281480067421144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>60</v>
       </c>
@@ -497,8 +4957,27 @@
         <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>1.7320508075688767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>65</v>
       </c>
@@ -506,8 +4985,27 @@
         <f t="shared" si="0"/>
         <v>1.1344640137963142</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.90630778703664994</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.42261826174069944</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>2.1445069205095586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>70</v>
       </c>
@@ -515,8 +5013,27 @@
         <f t="shared" si="0"/>
         <v>1.2217304763960306</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.93969262078590832</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.34202014332566882</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>2.7474774194546216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>75</v>
       </c>
@@ -524,8 +5041,27 @@
         <f t="shared" si="0"/>
         <v>1.3089969389957472</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.96592582628906831</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.25881904510252074</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>3.7320508075688776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>80</v>
       </c>
@@ -533,8 +5069,27 @@
         <f t="shared" si="0"/>
         <v>1.3962634015954636</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>80</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.17364817766693041</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>5.6712818196177066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>85</v>
       </c>
@@ -542,8 +5097,27 @@
         <f t="shared" si="0"/>
         <v>1.4835298641951802</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>8.7155742747658138E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>11.430052302761348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>90</v>
       </c>
@@ -551,8 +5125,1859 @@
         <f t="shared" si="0"/>
         <v>1.5707963267948966</v>
       </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>1.6324552277619072E+16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <f>2*PI()*(SQRT($B24/9.81))</f>
+        <v>6.3437398492194133</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <f>D24*PI()/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F24">
+        <f>2*PI()*(SQRT($B24/9.81))*(1+(1/16)*E24^2+(11/3072)*E24^4+(173/737280)*E24^6+(22931/1321205760)*E24^8+(1319183/951268147200)*E24^10+(233526463/2009078326886400)*E24^12)</f>
+        <v>6.3558385546434959</v>
+      </c>
+      <c r="G24">
+        <f>F24/2</f>
+        <v>3.1779192773217479</v>
+      </c>
+      <c r="H24">
+        <f>B24*E24*2</f>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="I24">
+        <f>H24/G24</f>
+        <v>1.0984100599718436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C33" si="5">2*PI()*(SQRT($B25/9.81))</f>
+        <v>8.9714029309327472</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E33" si="6">D25*PI()/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F33" si="7">2*PI()*(SQRT($B25/9.81))*(1+(1/16)*E25^2+(11/3072)*E25^4+(173/737280)*E25^6+(22931/1321205760)*E25^8+(1319183/951268147200)*E25^10+(233526463/2009078326886400)*E25^12)</f>
+        <v>8.9885130842306413</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G33" si="8">F25/2</f>
+        <v>4.4942565421153207</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H33" si="9">B25*E25*2</f>
+        <v>6.9813170079773181</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I33" si="10">H25/G25</f>
+        <v>1.553386403859226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>10.987679728847352</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="7"/>
+        <v>11.008635301347672</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>5.504317650673836</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>10.471975511965978</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="10"/>
+        <v>1.9025020314160108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>12.687479698438827</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="7"/>
+        <v>12.711677109286992</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="8"/>
+        <v>6.3558385546434959</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>13.962634015954636</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="10"/>
+        <v>2.1968201199436872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>14.185033534428873</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>14.212087062196867</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>7.1060435310984333</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="9"/>
+        <v>17.453292519943293</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="10"/>
+        <v>2.4561195612666631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>15.538925691547858</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>15.568561346385103</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>7.7842806731925513</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="9"/>
+        <v>20.943951023931955</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="10"/>
+        <v>2.6905441752708867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>16.783958023124953</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>16.815968188862904</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>8.4079840944314519</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>24.434609527920614</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>2.9061198562570407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>17.942805861865494</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>17.977026168461283</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>8.9885130842306413</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>27.925268031909273</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="10"/>
+        <v>3.106772807718452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>19.031219547658242</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>19.067515663930489</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>9.5337578319652447</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>3.2952301799155306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>20.060666807106472</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="7"/>
+        <v>20.098926272986006</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="8"/>
+        <v>10.049463136493003</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="9"/>
+        <v>34.906585039886586</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>3.4734775943531706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <f>2*PI()*(SQRT($A2/9.81))</f>
+        <v>6.3437398492194133</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>C2*PI()/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E2">
+        <f>2*PI()*(SQRT($A2/9.81))*(1+(1/16)*D2^2+(11/3072)*D2^4+(173/737280)*D2^6+(22931/1321205760)*D2^8+(1319183/951268147200)*D2^10+(233526463/2009078326886400)*D2^12)</f>
+        <v>6.3558385546434959</v>
+      </c>
+      <c r="F2">
+        <f>E2/2</f>
+        <v>3.1779192773217479</v>
+      </c>
+      <c r="G2">
+        <f>A2*D2*2</f>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="H2">
+        <f>G2/F2</f>
+        <v>1.0984100599718436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">2*PI()*(SQRT($A3/9.81))</f>
+        <v>8.9714029309327472</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="1">C3*PI()/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="2">2*PI()*(SQRT($A3/9.81))*(1+(1/16)*D3^2+(11/3072)*D3^4+(173/737280)*D3^6+(22931/1321205760)*D3^8+(1319183/951268147200)*D3^10+(233526463/2009078326886400)*D3^12)</f>
+        <v>8.9885130842306413</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="3">E3/2</f>
+        <v>4.4942565421153207</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="4">A3*D3*2</f>
+        <v>6.9813170079773181</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="5">G3/F3</f>
+        <v>1.553386403859226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>10.987679728847352</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>11.008635301347672</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>5.504317650673836</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>10.471975511965978</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>1.9025020314160108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>12.687479698438827</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>12.711677109286992</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>6.3558385546434959</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>13.962634015954636</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>2.1968201199436872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>14.185033534428873</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>14.212087062196867</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>7.1060435310984333</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>17.453292519943293</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>2.4561195612666631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>15.538925691547858</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>15.568561346385103</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>7.7842806731925513</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>20.943951023931955</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>2.6905441752708867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>16.783958023124953</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>16.815968188862904</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>8.4079840944314519</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>24.434609527920614</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>2.9061198562570407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>17.942805861865494</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>17.977026168461283</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>8.9885130842306413</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>27.925268031909273</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>3.106772807718452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>19.031219547658242</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>19.067515663930489</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>9.5337578319652447</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>3.2952301799155306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>20.060666807106472</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>20.098926272986006</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>10.049463136493003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>34.906585039886586</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>3.4734775943531706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4">
+        <v>50</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5">
+        <v>60</v>
+      </c>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <f>$A15*PI()/180</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <f>(2*SIN(B15)*$B$13)/(PI()*(SQRT($B$13/9.81))*(1+(1/16)*B15^2+(11/3072)*B15^4+(173/737280)*B15^6+(22931/1321205760)*B15^8+(1319183/951268147200)*B15^10+(233526463/2009078326886400)*B15^12))</f>
+        <v>0.54929277305716417</v>
+      </c>
+      <c r="D15">
+        <f>$A15*PI()/180</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="E15">
+        <f>(2*SIN(D15)*$D$13)/(PI()*(SQRT($D$13/9.81))*(1+(1/16)*D15^2+(11/3072)*D15^4+(173/737280)*D15^6+(22931/1321205760)*D15^8+(1319183/951268147200)*D15^10+(233526463/2009078326886400)*D15^12))</f>
+        <v>0.77681728937096817</v>
+      </c>
+      <c r="F15" s="1">
+        <f>$A15*PI()/180</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <f>(2*SIN(F15)*$F$13)/(PI()*(SQRT($F$13/9.81))*(1+(1/16)*F15^2+(11/3072)*F15^4+(173/737280)*F15^6+(22931/1321205760)*F15^8+(1319183/951268147200)*F15^10+(233526463/2009078326886400)*F15^12))</f>
+        <v>0.95140299116540927</v>
+      </c>
+      <c r="H15">
+        <f>$A15*PI()/180</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="I15">
+        <f>(2*SIN(H15)*$H$13)/(PI()*(SQRT($H$13/9.81))*(1+(1/16)*H15^2+(11/3072)*H15^4+(173/737280)*H15^6+(22931/1321205760)*H15^8+(1319183/951268147200)*H15^10+(233526463/2009078326886400)*H15^12))</f>
+        <v>1.0985855461143283</v>
+      </c>
+      <c r="J15" s="1">
+        <f>$A15*PI()/180</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f>(2*SIN(J15)*$J$13)/(PI()*(SQRT($J$13/9.81))*(1+(1/16)*J15^2+(11/3072)*J15^4+(173/737280)*J15^6+(22931/1321205760)*J15^8+(1319183/951268147200)*J15^10+(233526463/2009078326886400)*J15^12))</f>
+        <v>1.2282559801051842</v>
+      </c>
+      <c r="L15">
+        <f>$A15*PI()/180</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="M15">
+        <f>(2*SIN(L15)*$L$13)/(PI()*(SQRT($L$13/9.81))*(1+(1/16)*L15^2+(11/3072)*L15^4+(173/737280)*L15^6+(22931/1321205760)*L15^8+(1319183/951268147200)*L15^10+(233526463/2009078326886400)*L15^12))</f>
+        <v>1.3454870133884518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:L24" si="6">$A16*PI()/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:C24" si="7">(2*SIN(B16)*$B$13)/(PI()*(SQRT($B$13/9.81))*(1+(1/16)*B16^2+(11/3072)*B16^4+(173/737280)*B16^6+(22931/1321205760)*B16^8+(1319183/951268147200)*B16^10+(233526463/2009078326886400)*B16^12))</f>
+        <v>1.0928419667932889</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E24" si="8">(2*SIN(D16)*$D$13)/(PI()*(SQRT($D$13/9.81))*(1+(1/16)*D16^2+(11/3072)*D16^4+(173/737280)*D16^6+(22931/1321205760)*D16^8+(1319183/951268147200)*D16^10+(233526463/2009078326886400)*D16^12))</f>
+        <v>1.5455119309695569</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G24" si="9">(2*SIN(F16)*$F$13)/(PI()*(SQRT($F$13/9.81))*(1+(1/16)*F16^2+(11/3072)*F16^4+(173/737280)*F16^6+(22931/1321205760)*F16^8+(1319183/951268147200)*F16^10+(233526463/2009078326886400)*F16^12))</f>
+        <v>1.8928578111294765</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I24" si="10">(2*SIN(H16)*$H$13)/(PI()*(SQRT($H$13/9.81))*(1+(1/16)*H16^2+(11/3072)*H16^4+(173/737280)*H16^6+(22931/1321205760)*H16^8+(1319183/951268147200)*H16^10+(233526463/2009078326886400)*H16^12))</f>
+        <v>2.1856839335865779</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16:K24" si="11">(2*SIN(J16)*$J$13)/(PI()*(SQRT($J$13/9.81))*(1+(1/16)*J16^2+(11/3072)*J16^4+(173/737280)*J16^6+(22931/1321205760)*J16^8+(1319183/951268147200)*J16^10+(233526463/2009078326886400)*J16^12))</f>
+        <v>2.4436689264143623</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M24" si="12">(2*SIN(L16)*$L$13)/(PI()*(SQRT($L$13/9.81))*(1+(1/16)*L16^2+(11/3072)*L16^4+(173/737280)*L16^6+(22931/1321205760)*L16^8+(1319183/951268147200)*L16^10+(233526463/2009078326886400)*L16^12))</f>
+        <v>2.6769051881431558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1401706410280665</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="8"/>
+        <v>3.0266583463346128</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7068842871278656</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="10"/>
+        <v>4.2803412820561331</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="11"/>
+        <v>4.7855670367880574</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>5.2423260330039483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="6"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="7"/>
+        <v>3.0987685695171758</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="8"/>
+        <v>4.3823205376666641</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="6"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="9"/>
+        <v>5.3672246033012794</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="10"/>
+        <v>6.1975371390343517</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="6"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="11"/>
+        <v>6.9290571679801882</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="12"/>
+        <v>7.5904018262912238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="7"/>
+        <v>3.9298868192095426</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="8"/>
+        <v>5.5576992383173991</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="9"/>
+        <v>6.8067636388661743</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="10"/>
+        <v>7.8597736384190853</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="11"/>
+        <v>8.7874940716329633</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="12"/>
+        <v>9.6262174539525827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="7"/>
+        <v>4.6011784234614685</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>6.5070489293576648</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="9"/>
+        <v>7.969474804124931</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="10"/>
+        <v>9.2023568469229371</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="11"/>
+        <v>10.28854773146516</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="12"/>
+        <v>11.270539352984143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="7"/>
+        <v>5.0882903382333202</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>7.1959292056215451</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="9"/>
+        <v>8.8131773894819396</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>10.17658067646664</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="11"/>
+        <v>11.377763085545103</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="12"/>
+        <v>12.463714991805265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3760316805369461</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>7.6028569143627704</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="9"/>
+        <v>9.3115600137898848</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="10"/>
+        <v>10.752063361073892</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="11"/>
+        <v>12.021172286873043</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="12"/>
+        <v>13.168534458352658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="7"/>
+        <v>5.4590618876982058</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>7.720279359416871</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="9"/>
+        <v>9.4553725511561577</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>10.918123775396412</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="11"/>
+        <v>12.206833474271511</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="12"/>
+        <v>13.37191609913533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3420742425102103</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="8"/>
+        <v>7.5548338449619186</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="9"/>
+        <v>9.2527440058327084</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="10"/>
+        <v>10.684148485020421</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="11"/>
+        <v>11.945241147103529</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="12"/>
+        <v>13.085356062214975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0.54999057692702136</v>
+      </c>
+      <c r="C27">
+        <v>0.77780413306759666</v>
+      </c>
+      <c r="D27">
+        <v>0.95261162292172008</v>
+      </c>
+      <c r="E27">
+        <v>1.0999811538540427</v>
+      </c>
+      <c r="F27">
+        <v>1.2298163169931469</v>
+      </c>
+      <c r="G27">
+        <v>1.3471962768101413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>1.0984100599718436</v>
+      </c>
+      <c r="C28">
+        <v>1.553386403859226</v>
+      </c>
+      <c r="D28">
+        <v>1.9025020314160108</v>
+      </c>
+      <c r="E28">
+        <v>2.1968201199436872</v>
+      </c>
+      <c r="F28">
+        <v>2.4561195612666631</v>
+      </c>
+      <c r="G28">
+        <v>2.6905441752708867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>2.1842587326729568</v>
+      </c>
+      <c r="C29">
+        <v>3.0890083234779642</v>
+      </c>
+      <c r="D29">
+        <v>3.7832471018655673</v>
+      </c>
+      <c r="E29">
+        <v>4.3685174653459136</v>
+      </c>
+      <c r="F29">
+        <v>4.884151006704271</v>
+      </c>
+      <c r="G29">
+        <v>5.3503193612669904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>3.2450228577233706</v>
+      </c>
+      <c r="C30">
+        <v>4.5891553356030883</v>
+      </c>
+      <c r="D30">
+        <v>5.6205444612992297</v>
+      </c>
+      <c r="E30">
+        <v>6.4900457154467412</v>
+      </c>
+      <c r="F30">
+        <v>7.2560916984100858</v>
+      </c>
+      <c r="G30">
+        <v>7.9486502050903525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>4.2682505507149946</v>
+      </c>
+      <c r="C31">
+        <v>6.0362178164275777</v>
+      </c>
+      <c r="D31">
+        <v>7.3928268132722117</v>
+      </c>
+      <c r="E31">
+        <v>8.5365011014299892</v>
+      </c>
+      <c r="F31">
+        <v>9.5440983763996403</v>
+      </c>
+      <c r="G31">
+        <v>10.455035943605029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>5.2415831537238819</v>
+      </c>
+      <c r="C32">
+        <v>7.4127179843026525</v>
+      </c>
+      <c r="D32">
+        <v>9.0786883343468716</v>
+      </c>
+      <c r="E32">
+        <v>10.483166307447764</v>
+      </c>
+      <c r="F32">
+        <v>11.720536241444329</v>
+      </c>
+      <c r="G32">
+        <v>12.839204170991749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>6.1527585203511403</v>
+      </c>
+      <c r="C33">
+        <v>8.7013145454871985</v>
+      </c>
+      <c r="D33">
+        <v>10.656890363950483</v>
+      </c>
+      <c r="E33">
+        <v>12.305517040702281</v>
+      </c>
+      <c r="F33">
+        <v>13.757986300646174</v>
+      </c>
+      <c r="G33">
+        <v>15.071118885421919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>6.9895853185368031</v>
+      </c>
+      <c r="C34">
+        <v>9.884766352838616</v>
+      </c>
+      <c r="D34">
+        <v>12.106316895543237</v>
+      </c>
+      <c r="E34">
+        <v>13.979170637073606</v>
+      </c>
+      <c r="F34">
+        <v>15.629187906782811</v>
+      </c>
+      <c r="G34">
+        <v>17.12091754406379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>7.7398744044444596</v>
+      </c>
+      <c r="C35">
+        <v>10.945835353829736</v>
+      </c>
+      <c r="D35">
+        <v>13.405855712699708</v>
+      </c>
+      <c r="E35">
+        <v>15.479748808888919</v>
+      </c>
+      <c r="F35">
+        <v>17.306885305648507</v>
+      </c>
+      <c r="G35">
+        <v>18.958742964116762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>8.3913105976006683</v>
+      </c>
+      <c r="C36">
+        <v>11.867105253211946</v>
+      </c>
+      <c r="D36">
+        <v>14.534176297135515</v>
+      </c>
+      <c r="E36">
+        <v>16.782621195201337</v>
+      </c>
+      <c r="F36">
+        <v>18.763540916549481</v>
+      </c>
+      <c r="G36">
+        <v>20.554429237330613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.54929277305716417</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.77681728937096817</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.95140299116540927</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.0985855461143283</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1.2282559801051842</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1.3454870133884518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.0928419667932889</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1.5455119309695569</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.8928578111294765</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2.1856839335865779</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2.4436689264143623</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2.6769051881431558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2.1401706410280665</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3.0266583463346128</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3.7068842871278656</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4.2803412820561331</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4.7855670367880574</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5.2423260330039483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>30</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3.0987685695171758</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4.3823205376666641</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5.3672246033012794</v>
+      </c>
+      <c r="E50" s="3">
+        <v>6.1975371390343517</v>
+      </c>
+      <c r="F50" s="3">
+        <v>6.9290571679801882</v>
+      </c>
+      <c r="G50" s="3">
+        <v>7.5904018262912238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>40</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3.9298868192095426</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5.5576992383173991</v>
+      </c>
+      <c r="D51" s="3">
+        <v>6.8067636388661743</v>
+      </c>
+      <c r="E51" s="3">
+        <v>7.8597736384190853</v>
+      </c>
+      <c r="F51" s="3">
+        <v>8.7874940716329633</v>
+      </c>
+      <c r="G51" s="3">
+        <v>9.6262174539525827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4.6011784234614685</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6.5070489293576648</v>
+      </c>
+      <c r="D52" s="3">
+        <v>7.969474804124931</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9.2023568469229371</v>
+      </c>
+      <c r="F52" s="3">
+        <v>10.28854773146516</v>
+      </c>
+      <c r="G52" s="3">
+        <v>11.270539352984143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>60</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5.0882903382333202</v>
+      </c>
+      <c r="C53" s="3">
+        <v>7.1959292056215451</v>
+      </c>
+      <c r="D53" s="3">
+        <v>8.8131773894819396</v>
+      </c>
+      <c r="E53" s="3">
+        <v>10.17658067646664</v>
+      </c>
+      <c r="F53" s="3">
+        <v>11.377763085545103</v>
+      </c>
+      <c r="G53" s="3">
+        <v>12.463714991805265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>70</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5.3760316805369461</v>
+      </c>
+      <c r="C54" s="3">
+        <v>7.6028569143627704</v>
+      </c>
+      <c r="D54" s="3">
+        <v>9.3115600137898848</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10.752063361073892</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12.021172286873043</v>
+      </c>
+      <c r="G54" s="3">
+        <v>13.168534458352658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>80</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5.4590618876982058</v>
+      </c>
+      <c r="C55" s="3">
+        <v>7.720279359416871</v>
+      </c>
+      <c r="D55" s="3">
+        <v>9.4553725511561577</v>
+      </c>
+      <c r="E55" s="3">
+        <v>10.918123775396412</v>
+      </c>
+      <c r="F55" s="3">
+        <v>12.206833474271511</v>
+      </c>
+      <c r="G55" s="3">
+        <v>13.37191609913533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>90</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5.3420742425102103</v>
+      </c>
+      <c r="C56" s="3">
+        <v>7.5548338449619186</v>
+      </c>
+      <c r="D56" s="3">
+        <v>9.2527440058327084</v>
+      </c>
+      <c r="E56" s="3">
+        <v>10.684148485020421</v>
+      </c>
+      <c r="F56" s="3">
+        <v>11.945241147103529</v>
+      </c>
+      <c r="G56" s="3">
+        <v>13.085356062214975</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="F16:F24 F15 H15 J15 L15 H16:H24 J16:J24 L16:L24" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>